--- a/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_100_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1 - Unfolded Fluence Spectrum.xlsx
+++ b/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_100_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.003037619159868102</v>
       </c>
       <c r="F2" t="n">
-        <v>276.6869275795305</v>
+        <v>289.7642398741022</v>
       </c>
       <c r="G2" t="n">
-        <v>11.39215785435168</v>
+        <v>10.22572251063546</v>
       </c>
       <c r="H2" t="n">
-        <v>563.3130276470815</v>
+        <v>565.1189657525183</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2776151766525689</v>
+        <v>0.2690435436562014</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0007945763740888741</v>
+        <v>0.0002733623015715106</v>
       </c>
       <c r="K2" t="n">
-        <v>0.711150000737382</v>
+        <v>0.6476919457638077</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1786809643384819</v>
+        <v>0.1804299327711221</v>
       </c>
       <c r="M2" t="n">
-        <v>0.007653874278738064</v>
+        <v>0.005714907832726697</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3779119494533225</v>
+        <v>0.3730248669513799</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0.0008534260257186952</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002698871963499592</v>
+        <v>0.002722647809646354</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001869480247305829</v>
+        <v>0.001864371916658564</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003625496963528074</v>
+        <v>0.00363798400436011</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00249146692553608</v>
+        <v>0.002513829759304127</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001719639189481877</v>
+        <v>0.001714572055782251</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003350714472522589</v>
+        <v>0.003362228382203129</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002822549216142825</v>
+        <v>0.002846694438539421</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001976596874579109</v>
+        <v>0.00197161626909972</v>
       </c>
       <c r="N3" t="n">
-        <v>0.003766113409122121</v>
+        <v>0.003778169987156904</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.003891045185586797</v>
       </c>
       <c r="F4" t="n">
-        <v>276.689626451494</v>
+        <v>289.7669625219119</v>
       </c>
       <c r="G4" t="n">
-        <v>11.39402733459898</v>
+        <v>10.22758688255212</v>
       </c>
       <c r="H4" t="n">
-        <v>563.3166531440451</v>
+        <v>565.1226037365227</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2801066435781049</v>
+        <v>0.2715573734155055</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002514215563570751</v>
+        <v>0.001987934357353761</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7145007152099045</v>
+        <v>0.6510541741460107</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1815035135546247</v>
+        <v>0.1832766272096615</v>
       </c>
       <c r="M4" t="n">
-        <v>0.009630471153317173</v>
+        <v>0.007686524101826416</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3816780628624446</v>
+        <v>0.3768030369385368</v>
       </c>
     </row>
   </sheetData>
